--- a/circuit_board/controller/BOM_RFFE_Controller.xlsx
+++ b/circuit_board/controller/BOM_RFFE_Controller.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BKP\CNPEM\rffe-hw\circuit_board\controller\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19815" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_RFFE_CONTROLLER_v7" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="102">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -29,15 +33,9 @@
     <t>RFFE Controller</t>
   </si>
   <si>
-    <t>REV.: 7</t>
-  </si>
-  <si>
     <t>Data:</t>
   </si>
   <si>
-    <t>29/10/2015</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -167,9 +165,6 @@
     <t>IC DAC 12BIT QUAD W/SPI 10-MSOP</t>
   </si>
   <si>
-    <t>DAC7553IDGS</t>
-  </si>
-  <si>
     <t>Texas Instruments</t>
   </si>
   <si>
@@ -324,64 +319,67 @@
   </si>
   <si>
     <t>J4, J5</t>
+  </si>
+  <si>
+    <t>DAC7554IDGS</t>
+  </si>
+  <si>
+    <t>REV.: 8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;R$ &quot;* #,##0_);_(&quot;R$ &quot;* \(#,##0\);_(&quot;R$ &quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="38"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="Times New Roman"/>
       <family val="22"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <name val="Arial"/>
       <family val="38"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="38"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="38"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="38"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="0"/>
+      <name val="Segoe UI"/>
+      <family val="38"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
       <name val="Segoe UI"/>
       <family val="38"/>
       <charset val="134"/>
@@ -588,37 +586,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -631,12 +605,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="58" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -652,23 +626,283 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Comma[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Percent" xfId="4" builtinId="5"/>
-    <cellStyle name="Currency[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>704850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1" descr="rId1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="57150" y="19050"/>
+          <a:ext cx="733425" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1838325</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2066925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>638175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2" descr="rId2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="20525" b="23424"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5876925" y="28575"/>
+          <a:ext cx="2162175" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1809750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>590550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1027" name="Text Box 3"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="819150" y="76200"/>
+          <a:ext cx="5029200" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>Grupo de diagnóstico do feixe</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>DIG</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>Tel: (19) 3517-5071</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -966,6 +1200,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -990,789 +1225,787 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.27619047619048" customWidth="1"/>
-    <col min="2" max="2" width="31.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="20.4952380952381" customWidth="1"/>
-    <col min="4" max="4" width="29.0666666666667" customWidth="1"/>
-    <col min="5" max="5" width="32.2666666666667" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" ht="57" customHeight="1" spans="1:5">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" ht="26.25" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" ht="15.75" spans="1:5">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="5">
+        <v>42064</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" ht="7.5" customHeight="1" spans="1:5">
-      <c r="A5" s="13"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="15" t="s">
+      <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="D6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="E6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="16" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>8</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="C7" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" ht="28.5" spans="1:5">
-      <c r="A7" s="18">
-        <v>8</v>
-      </c>
-      <c r="B7" s="19" t="s">
+      <c r="D7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="E7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="19" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="C8" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" ht="28.5" spans="1:5">
-      <c r="A8" s="18">
+      <c r="D8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>11</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>1</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>1</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="12">
+        <v>132289</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>2</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>2</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>1</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>1</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>7</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>1</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>2</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>1</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>1</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>1</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" spans="1:5">
-      <c r="A9" s="18">
+      <c r="B24" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>4</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>2</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>2</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>5</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
         <v>1</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" ht="28.5" spans="1:5">
-      <c r="A10" s="18">
-        <v>11</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" spans="1:5">
-      <c r="A11" s="18">
-        <v>1</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" ht="28.5" spans="1:5">
-      <c r="A12" s="18">
-        <v>1</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="1:5">
-      <c r="A13" s="18">
-        <v>1</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="19">
-        <v>132289</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" ht="28.5" spans="1:5">
-      <c r="A14" s="18">
+      <c r="B29" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>7</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
         <v>2</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" spans="1:5">
-      <c r="A15" s="18">
+      <c r="B31" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
         <v>2</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" ht="28.5" spans="1:5">
-      <c r="A16" s="18">
-        <v>1</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" spans="1:5">
-      <c r="A17" s="18">
-        <v>1</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" spans="1:5">
-      <c r="A18" s="18">
-        <v>7</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" spans="1:5">
-      <c r="A19" s="18">
-        <v>1</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" spans="1:5">
-      <c r="A20" s="18">
-        <v>2</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" spans="1:5">
-      <c r="A21" s="18">
-        <v>1</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" spans="1:5">
-      <c r="A22" s="18">
-        <v>1</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" ht="28.5" spans="1:5">
-      <c r="A23" s="18">
-        <v>1</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" spans="1:5">
-      <c r="A24" s="18">
-        <v>6</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" spans="1:5">
-      <c r="A25" s="18">
-        <v>4</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" spans="1:5">
-      <c r="A26" s="18">
-        <v>2</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" spans="1:5">
-      <c r="A27" s="18">
-        <v>2</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" spans="1:5">
-      <c r="A28" s="18">
-        <v>5</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" spans="1:5">
-      <c r="A29" s="18">
-        <v>1</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" spans="1:5">
-      <c r="A30" s="18">
-        <v>7</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" spans="1:5">
-      <c r="A31" s="18">
-        <v>2</v>
-      </c>
-      <c r="B31" s="19" t="s">
+      <c r="B32" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C32" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" s="20" t="s">
+      <c r="E32" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:5">
-      <c r="A32" s="18">
-        <v>2</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" spans="1:5">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
-    </row>
-    <row r="34" ht="14.25" spans="1:5">
-      <c r="A34" s="18"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
-    </row>
-    <row r="35" ht="14.25" spans="1:5">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20"/>
-    </row>
-    <row r="36" ht="14.25" spans="1:5">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
-    </row>
-    <row r="37" ht="14.25" spans="1:5">
-      <c r="A37" s="18"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="20"/>
-    </row>
-    <row r="38" ht="14.25" spans="1:5">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="20"/>
-    </row>
-    <row r="39" ht="14.25" spans="1:5">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20"/>
-    </row>
-    <row r="40" ht="14.25" spans="1:5">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="20"/>
-    </row>
-    <row r="41" ht="14.25" spans="1:5">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="20"/>
-    </row>
-    <row r="42" ht="14.25" spans="1:5">
-      <c r="A42" s="18"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="20"/>
-    </row>
-    <row r="43" ht="14.25" spans="1:5">
-      <c r="A43" s="18"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="20"/>
-    </row>
-    <row r="44" ht="14.25" spans="1:5">
-      <c r="A44" s="18"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="20"/>
-    </row>
-    <row r="45" ht="14.25" spans="1:5">
-      <c r="A45" s="18"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="20"/>
-    </row>
-    <row r="46" ht="14.25" spans="1:5">
-      <c r="A46" s="18"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="20"/>
-    </row>
-    <row r="47" ht="14.25" spans="1:5">
-      <c r="A47" s="18"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="20"/>
-    </row>
-    <row r="48" ht="14.25" spans="1:5">
-      <c r="A48" s="18"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="20"/>
-    </row>
-    <row r="49" ht="14.25" spans="1:5">
-      <c r="A49" s="18"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="20"/>
-    </row>
-    <row r="50" ht="14.25" spans="1:5">
-      <c r="A50" s="18"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="20"/>
-    </row>
-    <row r="51" ht="14.25" spans="1:5">
-      <c r="A51" s="18"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="20"/>
-    </row>
-    <row r="52" ht="14.25" spans="1:5">
-      <c r="A52" s="18"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="20"/>
-    </row>
-    <row r="53" ht="14.25" spans="1:5">
-      <c r="A53" s="18"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="20"/>
-    </row>
-    <row r="54" ht="14.25" spans="1:5">
-      <c r="A54" s="18"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="20"/>
-    </row>
-    <row r="55" ht="14.25" spans="1:5">
-      <c r="A55" s="18"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="20"/>
-    </row>
-    <row r="56" ht="14.25" spans="1:5">
-      <c r="A56" s="18"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="20"/>
-    </row>
-    <row r="57" ht="14.25" spans="1:5">
-      <c r="A57" s="18"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="20"/>
-    </row>
-    <row r="58" ht="14.25" spans="1:5">
-      <c r="A58" s="18"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="20"/>
-    </row>
-    <row r="59" ht="14.25" spans="1:5">
-      <c r="A59" s="18"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="20"/>
-    </row>
-    <row r="60" ht="14.25" spans="1:5">
-      <c r="A60" s="18"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="20"/>
-    </row>
-    <row r="61" ht="14.25" spans="1:5">
-      <c r="A61" s="18"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="20"/>
-    </row>
-    <row r="62" ht="14.25" spans="1:5">
-      <c r="A62" s="18"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="20"/>
-    </row>
-    <row r="63" ht="14.25" spans="1:5">
-      <c r="A63" s="18"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="20"/>
-    </row>
-    <row r="64" ht="14.25" spans="1:5">
-      <c r="A64" s="18"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="20"/>
-    </row>
-    <row r="65" ht="14.25" spans="1:5">
-      <c r="A65" s="18"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="20"/>
-    </row>
-    <row r="66" ht="14.25" spans="1:5">
-      <c r="A66" s="18"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="20"/>
-    </row>
-    <row r="67" ht="14.25" spans="1:5">
-      <c r="A67" s="18"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="20"/>
-    </row>
-    <row r="68" ht="14.25" spans="1:5">
-      <c r="A68" s="18"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="20"/>
+    <row r="33" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="13"/>
+    </row>
+    <row r="35" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="13"/>
+    </row>
+    <row r="38" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="13"/>
+    </row>
+    <row r="39" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="13"/>
+    </row>
+    <row r="40" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="13"/>
+    </row>
+    <row r="43" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="13"/>
+    </row>
+    <row r="44" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="13"/>
+    </row>
+    <row r="47" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="13"/>
+    </row>
+    <row r="48" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="13"/>
+    </row>
+    <row r="49" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="13"/>
+    </row>
+    <row r="50" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="13"/>
+    </row>
+    <row r="51" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="13"/>
+    </row>
+    <row r="52" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="13"/>
+    </row>
+    <row r="53" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="13"/>
+    </row>
+    <row r="54" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="13"/>
+    </row>
+    <row r="55" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="13"/>
+    </row>
+    <row r="56" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="13"/>
+    </row>
+    <row r="57" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="13"/>
+    </row>
+    <row r="58" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="13"/>
+    </row>
+    <row r="59" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="11"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="13"/>
+    </row>
+    <row r="60" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="13"/>
+    </row>
+    <row r="61" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="11"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="13"/>
+    </row>
+    <row r="62" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="13"/>
+    </row>
+    <row r="63" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="13"/>
+    </row>
+    <row r="64" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="13"/>
+    </row>
+    <row r="65" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="11"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="13"/>
+    </row>
+    <row r="66" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="13"/>
+    </row>
+    <row r="67" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="11"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="13"/>
+    </row>
+    <row r="68" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="11"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A1:E2"/>
   </mergeCells>
-  <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.491666666666667" footer="0.491666666666667"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="600"/>
+  <pageMargins left="0.75138888888888899" right="0.75138888888888899" top="1" bottom="1" header="0.49166666666666697" footer="0.49166666666666697"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>